--- a/Documentos/cronograma.xlsx
+++ b/Documentos/cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muril\OneDrive\Área de Trabalho\tcc\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1991A-239F-4561-94C9-B5AACE06B20F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7912E59B-BDB5-40FD-9832-F7BEB0639542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t xml:space="preserve">Cronograma Do Projeto Final </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Maio</t>
+  </si>
+  <si>
+    <t>Largatixa</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -456,8 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,28 +476,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,15 +515,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,10 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,10 +578,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,64 +903,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="J3" s="27" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
       <c r="R3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
@@ -962,22 +972,22 @@
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="43"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="26" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="57"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -994,32 +1004,32 @@
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>3</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <v>4</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>5</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <v>6</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <v>7</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="26" t="s">
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1030,54 +1040,54 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="18"/>
       <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="26" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="18"/>
       <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="26" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1088,25 +1098,25 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="21" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="26" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1117,53 +1127,53 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="K11" s="25" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="K11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8">
@@ -1187,124 +1197,124 @@
       <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>10</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <v>11</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>12</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="21">
         <v>13</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <v>14</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="16"/>
       <c r="J13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="16"/>
       <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="19"/>
-      <c r="J15" s="21" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="17"/>
       <c r="J16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="K18" s="25" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="K18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="57"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1331,22 +1341,22 @@
       <c r="H19" s="7">
         <v>17</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>17</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="21">
         <v>18</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="21">
         <v>19</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <v>20</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <v>21</v>
       </c>
     </row>
@@ -1354,99 +1364,99 @@
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="15"/>
-      <c r="J20" s="21" t="s">
+      <c r="H20" s="13"/>
+      <c r="J20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="17" t="s">
+      <c r="H21" s="14"/>
+      <c r="J21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="16"/>
-      <c r="J22" s="21" t="s">
+      <c r="H22" s="14"/>
+      <c r="J22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="54"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="15"/>
       <c r="J23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="K25" s="25" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="K25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="57"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -1473,22 +1483,22 @@
       <c r="H26" s="7">
         <v>24</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <v>24</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="19">
         <v>25</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="19">
         <v>26</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="19">
         <v>27</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="19">
         <v>28</v>
       </c>
     </row>
@@ -1496,92 +1506,92 @@
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="J27" s="21" t="s">
+      <c r="H27" s="13"/>
+      <c r="J27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="16"/>
-      <c r="J28" s="17" t="s">
+      <c r="H28" s="14"/>
+      <c r="J28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="16"/>
-      <c r="J29" s="21" t="s">
+      <c r="H29" s="14"/>
+      <c r="J29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="15"/>
       <c r="J30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1611,59 +1621,59 @@
       <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="K18:O18"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="K11:O11"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B18:H18"/>
@@ -1673,7 +1683,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="C16:G16"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B4:H4"/>
@@ -1684,7 +1693,6 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
